--- a/ExcelToCs/配置/成就配置表.xlsx
+++ b/ExcelToCs/配置/成就配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F018BD8F-26B4-4B47-ABC5-5B679D7D2350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BFB1AE-56F4-454A-9AAC-BCD6C967100E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="1035" windowWidth="27480" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Achievement" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="116">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -43,94 +43,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>property_LifeRecovery</t>
-  </si>
-  <si>
-    <t>property_Adrenaline</t>
-  </si>
-  <si>
-    <t>property_Power</t>
-  </si>
-  <si>
-    <t>property_PercentageDamage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>property_AttackSpeed</t>
-  </si>
-  <si>
-    <t>property_Range</t>
-  </si>
-  <si>
-    <t>property_CriticalHitRate</t>
-  </si>
-  <si>
-    <t>property_MoveSpeed</t>
-  </si>
-  <si>
-    <t>property_Armor</t>
-  </si>
-  <si>
-    <t>property_Lucky</t>
-  </si>
-  <si>
-    <t>property_Sunshine</t>
-  </si>
-  <si>
-    <t>property_GoldCoins</t>
-  </si>
-  <si>
-    <t>property_Botany</t>
-  </si>
-  <si>
-    <t>property_MaximumHP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>grow_slotNum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>grow_addProp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>grow_addPlant</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>grow_addSun</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>grow_addMoney</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>grow_resurrection</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>grow_curse</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>grow_physicalRecovery</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>grow_runTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>grow_dashRecovery</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>grow_dashTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>成就id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -171,10 +83,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>第一次开始冒险</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>lockText</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -183,10 +91,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>解锁橄榄球头盔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>进度</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -205,6 +109,293 @@
   <si>
     <t>type</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement_title1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement_title2</t>
+  </si>
+  <si>
+    <t>achievement_title3</t>
+  </si>
+  <si>
+    <t>achievement_title4</t>
+  </si>
+  <si>
+    <t>achievement_title5</t>
+  </si>
+  <si>
+    <t>achievement_title6</t>
+  </si>
+  <si>
+    <t>achievement_title7</t>
+  </si>
+  <si>
+    <t>achievement_title8</t>
+  </si>
+  <si>
+    <t>achievement_title9</t>
+  </si>
+  <si>
+    <t>achievement_title10</t>
+  </si>
+  <si>
+    <t>achievement_title11</t>
+  </si>
+  <si>
+    <t>achievement_title12</t>
+  </si>
+  <si>
+    <t>achievement_title13</t>
+  </si>
+  <si>
+    <t>achievement_title14</t>
+  </si>
+  <si>
+    <t>achievement_title15</t>
+  </si>
+  <si>
+    <t>achievement_title16</t>
+  </si>
+  <si>
+    <t>achievement_title17</t>
+  </si>
+  <si>
+    <t>achievement_title18</t>
+  </si>
+  <si>
+    <t>achievement_title19</t>
+  </si>
+  <si>
+    <t>achievement_title20</t>
+  </si>
+  <si>
+    <t>achievement_title21</t>
+  </si>
+  <si>
+    <t>achievement_title22</t>
+  </si>
+  <si>
+    <t>achievement_title23</t>
+  </si>
+  <si>
+    <t>achievement_title24</t>
+  </si>
+  <si>
+    <t>achievement_title25</t>
+  </si>
+  <si>
+    <t>achievement_title26</t>
+  </si>
+  <si>
+    <t>achievement_title27</t>
+  </si>
+  <si>
+    <t>achievement_title28</t>
+  </si>
+  <si>
+    <t>achievement_title29</t>
+  </si>
+  <si>
+    <t>achievement_title30</t>
+  </si>
+  <si>
+    <t>achievement_title31</t>
+  </si>
+  <si>
+    <t>achievement_title32</t>
+  </si>
+  <si>
+    <t>achievement_title33</t>
+  </si>
+  <si>
+    <t>achievement_title34</t>
+  </si>
+  <si>
+    <t>achievement_title35</t>
+  </si>
+  <si>
+    <t>achievement_title36</t>
+  </si>
+  <si>
+    <t>achievement_title37</t>
+  </si>
+  <si>
+    <t>achievement_title38</t>
+  </si>
+  <si>
+    <t>achievement_lock9</t>
+  </si>
+  <si>
+    <t>achievement_lock10</t>
+  </si>
+  <si>
+    <t>achievement_lock11</t>
+  </si>
+  <si>
+    <t>achievement_lock12</t>
+  </si>
+  <si>
+    <t>achievement_lock13</t>
+  </si>
+  <si>
+    <t>achievement_lock14</t>
+  </si>
+  <si>
+    <t>achievement_lock15</t>
+  </si>
+  <si>
+    <t>achievement_lock16</t>
+  </si>
+  <si>
+    <t>achievement_lock17</t>
+  </si>
+  <si>
+    <t>achievement_lock18</t>
+  </si>
+  <si>
+    <t>achievement_lock19</t>
+  </si>
+  <si>
+    <t>achievement_lock20</t>
+  </si>
+  <si>
+    <t>achievement_lock21</t>
+  </si>
+  <si>
+    <t>achievement_lock22</t>
+  </si>
+  <si>
+    <t>achievement_lock23</t>
+  </si>
+  <si>
+    <t>achievement_lock24</t>
+  </si>
+  <si>
+    <t>achievement_lock25</t>
+  </si>
+  <si>
+    <t>achievement_lock26</t>
+  </si>
+  <si>
+    <t>achievement_lock27</t>
+  </si>
+  <si>
+    <t>achievement_info1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement_info2</t>
+  </si>
+  <si>
+    <t>achievement_info3</t>
+  </si>
+  <si>
+    <t>achievement_info4</t>
+  </si>
+  <si>
+    <t>achievement_info5</t>
+  </si>
+  <si>
+    <t>achievement_info6</t>
+  </si>
+  <si>
+    <t>achievement_info7</t>
+  </si>
+  <si>
+    <t>achievement_info8</t>
+  </si>
+  <si>
+    <t>achievement_info9</t>
+  </si>
+  <si>
+    <t>achievement_info10</t>
+  </si>
+  <si>
+    <t>achievement_info11</t>
+  </si>
+  <si>
+    <t>achievement_info12</t>
+  </si>
+  <si>
+    <t>achievement_info13</t>
+  </si>
+  <si>
+    <t>achievement_info14</t>
+  </si>
+  <si>
+    <t>achievement_info15</t>
+  </si>
+  <si>
+    <t>achievement_info16</t>
+  </si>
+  <si>
+    <t>achievement_info17</t>
+  </si>
+  <si>
+    <t>achievement_info18</t>
+  </si>
+  <si>
+    <t>achievement_info19</t>
+  </si>
+  <si>
+    <t>achievement_info20</t>
+  </si>
+  <si>
+    <t>achievement_info21</t>
+  </si>
+  <si>
+    <t>achievement_info22</t>
+  </si>
+  <si>
+    <t>achievement_info23</t>
+  </si>
+  <si>
+    <t>achievement_info24</t>
+  </si>
+  <si>
+    <t>achievement_info25</t>
+  </si>
+  <si>
+    <t>achievement_info26</t>
+  </si>
+  <si>
+    <t>achievement_info27</t>
+  </si>
+  <si>
+    <t>achievement_info28</t>
+  </si>
+  <si>
+    <t>achievement_info29</t>
+  </si>
+  <si>
+    <t>achievement_info30</t>
+  </si>
+  <si>
+    <t>achievement_info31</t>
+  </si>
+  <si>
+    <t>achievement_info32</t>
+  </si>
+  <si>
+    <t>achievement_info33</t>
+  </si>
+  <si>
+    <t>achievement_info34</t>
+  </si>
+  <si>
+    <t>achievement_info35</t>
+  </si>
+  <si>
+    <t>achievement_info36</t>
+  </si>
+  <si>
+    <t>achievement_info37</t>
+  </si>
+  <si>
+    <t>achievement_info38</t>
   </si>
 </sst>
 </file>
@@ -549,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -570,25 +761,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -596,25 +787,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -628,19 +819,19 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -651,19 +842,17 @@
         <v>10001</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -677,16 +866,16 @@
         <v>10002</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -700,16 +889,16 @@
         <v>10003</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -723,16 +912,16 @@
         <v>10004</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -746,16 +935,16 @@
         <v>10005</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -769,16 +958,16 @@
         <v>10006</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -792,16 +981,16 @@
         <v>10007</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -815,16 +1004,16 @@
         <v>10008</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -838,16 +1027,19 @@
         <v>10009</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -861,16 +1053,19 @@
         <v>10010</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -884,16 +1079,19 @@
         <v>10011</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -907,16 +1105,19 @@
         <v>10012</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
       </c>
       <c r="G15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,16 +1131,19 @@
         <v>10013</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -953,16 +1157,19 @@
         <v>10014</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -976,16 +1183,19 @@
         <v>10015</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -999,13 +1209,16 @@
         <v>10016</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
       </c>
       <c r="G19">
         <v>10</v>
@@ -1022,16 +1235,19 @@
         <v>10017</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1045,16 +1261,19 @@
         <v>10018</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1068,16 +1287,19 @@
         <v>10019</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1091,16 +1313,19 @@
         <v>10020</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1114,16 +1339,19 @@
         <v>10021</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" t="s">
+        <v>71</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1137,16 +1365,19 @@
         <v>10022</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" t="s">
+        <v>72</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1160,16 +1391,19 @@
         <v>10023</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1183,16 +1417,19 @@
         <v>10024</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" t="s">
+        <v>74</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1206,18 +1443,326 @@
         <v>10025</v>
       </c>
       <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>10026</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
+      <c r="B30">
+        <v>10027</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>10028</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>10029</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>10030</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33">
+        <v>20</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>10031</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>10032</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35">
+        <v>50</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>10033</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36">
+        <v>50</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>10034</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>10035</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>36</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28">
-        <v>10</v>
-      </c>
-      <c r="H28">
+      <c r="B39">
+        <v>10036</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39">
+        <v>500</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>10037</v>
+      </c>
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40">
+        <v>25</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>10038</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
         <v>0</v>
       </c>
     </row>

--- a/ExcelToCs/配置/成就配置表.xlsx
+++ b/ExcelToCs/配置/成就配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BFB1AE-56F4-454A-9AAC-BCD6C967100E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AE0DE0-1F66-4DAA-897F-1616442E2C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,7 +743,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ExcelToCs/配置/成就配置表.xlsx
+++ b/ExcelToCs/配置/成就配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AE0DE0-1F66-4DAA-897F-1616442E2C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E1F1B5-5D15-4FBA-B058-9D98590E12B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="810" windowWidth="27480" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Achievement" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="182">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -396,6 +396,262 @@
   </si>
   <si>
     <t>achievement_info38</t>
+  </si>
+  <si>
+    <t>第一次开始冒险</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共收集300个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共收集2000个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共收集10000个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一局冒险中收集50个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一局冒险中收集200个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一局冒险中收集500个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次被僵尸吃掉脑子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养4次豌豆射手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计进化过2次双发射手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养2次玉米投手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次购买水花盆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养2次大喷菇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养2次向日葵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养2次地刺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计使用灰烬植物击杀10只僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击杀投篮僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击杀铁桶僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击杀橄榄球僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击杀巨人僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击杀读报僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击杀路障僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击杀铁栅栏僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次使用寒冰菇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次使用火爆辣椒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次购物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用菠菜的飞头攻击累计击杀10只僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次使用传送门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量达到20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值达到100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度达到50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲达到50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物学达到100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币达到100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光达到500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运达到25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭坛等级全部升满</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共收集僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局收集僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养植物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>param</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买商品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性达标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pot_Water</t>
+  </si>
+  <si>
+    <t>植物类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击杀冰车僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>某伤害击杀僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>MaximumHP</t>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Botany</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldCoins</t>
+  </si>
+  <si>
+    <t>Sunshine</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -435,12 +691,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -456,9 +718,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -740,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="R58" sqref="R58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -756,7 +1020,7 @@
     <col min="7" max="7" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,8 +1045,11 @@
       <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -807,8 +1074,11 @@
       <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -833,8 +1103,11 @@
       <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -855,10 +1128,13 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -878,10 +1154,13 @@
         <v>300</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -901,10 +1180,13 @@
         <v>2000</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -924,10 +1206,13 @@
         <v>10000</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -947,10 +1232,13 @@
         <v>50</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -970,10 +1258,13 @@
         <v>200</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -993,10 +1284,13 @@
         <v>500</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1016,10 +1310,13 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1042,10 +1339,16 @@
         <v>4</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1068,10 +1371,16 @@
         <v>2</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1094,10 +1403,16 @@
         <v>2</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1120,10 +1435,16 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1146,10 +1467,16 @@
         <v>2</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1172,10 +1499,16 @@
         <v>2</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>29</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1198,10 +1531,16 @@
         <v>2</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>26</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1224,10 +1563,16 @@
         <v>10</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>11</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1250,10 +1595,16 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1276,10 +1627,16 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1302,10 +1659,16 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1328,10 +1691,16 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1354,10 +1723,16 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1380,10 +1755,16 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1406,10 +1787,16 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1432,10 +1819,16 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1458,10 +1851,16 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <v>35</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1484,10 +1883,16 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>36</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1510,10 +1915,13 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1533,10 +1941,16 @@
         <v>10</v>
       </c>
       <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1556,10 +1970,16 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="I32">
+        <v>1001</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1579,10 +1999,16 @@
         <v>20</v>
       </c>
       <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
+        <v>173</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1602,10 +2028,16 @@
         <v>100</v>
       </c>
       <c r="H34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="I34" t="s">
+        <v>174</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1625,10 +2057,16 @@
         <v>50</v>
       </c>
       <c r="H35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>175</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1648,10 +2086,16 @@
         <v>50</v>
       </c>
       <c r="H36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
+        <v>176</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1671,10 +2115,16 @@
         <v>100</v>
       </c>
       <c r="H37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>177</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1694,10 +2144,16 @@
         <v>100</v>
       </c>
       <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>178</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1717,10 +2173,16 @@
         <v>500</v>
       </c>
       <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>179</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1740,10 +2202,16 @@
         <v>25</v>
       </c>
       <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
+        <v>180</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1765,6 +2233,205 @@
       <c r="H41">
         <v>0</v>
       </c>
+      <c r="K41" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O46" s="2"/>
+      <c r="P46" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O47" s="2"/>
+      <c r="P47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O48" s="2"/>
+      <c r="P48" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+    </row>
+    <row r="49" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O49" s="2"/>
+      <c r="P49" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+    </row>
+    <row r="50" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O50" s="2"/>
+      <c r="P50" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+    </row>
+    <row r="51" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O51" s="2"/>
+      <c r="P51" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O52" s="2"/>
+      <c r="P52" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O53" s="2"/>
+      <c r="P53" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O54" s="2"/>
+      <c r="P54" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O55" s="2"/>
+      <c r="P55" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+    </row>
+    <row r="56" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O56" s="2"/>
+      <c r="P56" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+    </row>
+    <row r="57" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+    </row>
+    <row r="58" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+    </row>
+    <row r="59" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+    </row>
+    <row r="60" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O60" s="2"/>
+      <c r="P60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+    </row>
+    <row r="61" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+    </row>
+    <row r="62" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+    </row>
+    <row r="63" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+    </row>
+    <row r="64" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+    </row>
+    <row r="65" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/ExcelToCs/配置/成就配置表.xlsx
+++ b/ExcelToCs/配置/成就配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E1F1B5-5D15-4FBA-B058-9D98590E12B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E01452-1906-43A8-BF81-6915D2947976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="810" windowWidth="27480" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5865" yWindow="1725" windowWidth="27480" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Achievement" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="181">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -68,10 +68,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI/Achievement/10001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -718,11 +714,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1006,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="R58" sqref="R58"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1034,19 +1029,19 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>159</v>
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1063,19 +1058,19 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>160</v>
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1098,13 +1093,13 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>161</v>
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1115,13 +1110,14 @@
         <v>10001</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="D4" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B4)</f>
+        <v>UI/Achievement/10001</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4">
@@ -1131,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1139,16 +1135,17 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>10002</v>
+        <v>20001</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D41" si="0">_xlfn.TEXTJOIN(,,,"UI/Achievement/",B5)</f>
+        <v>UI/Achievement/20001</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5">
         <v>300</v>
@@ -1157,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1165,16 +1162,17 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>10003</v>
+        <v>20002</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/20002</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6">
         <v>2000</v>
@@ -1183,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1191,16 +1189,17 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>10004</v>
+        <v>20003</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/20003</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7">
         <v>10000</v>
@@ -1209,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1217,16 +1216,17 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>10005</v>
+        <v>30001</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/30001</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8">
         <v>50</v>
@@ -1235,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1243,16 +1243,17 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>10006</v>
+        <v>30002</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/30002</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9">
         <v>200</v>
@@ -1261,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1269,16 +1270,17 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>10007</v>
+        <v>30003</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/30003</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10">
         <v>500</v>
@@ -1287,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1295,16 +1297,17 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>10008</v>
+        <v>40001</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/40001</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1313,7 +1316,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1321,19 +1324,20 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>10009</v>
+        <v>50001</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/50001</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -1345,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1353,19 +1357,20 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>10010</v>
+        <v>50002</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/50002</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1377,7 +1382,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1385,19 +1390,20 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>10011</v>
+        <v>50003</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/50003</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1409,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1417,13 +1423,14 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>10012</v>
+        <v>50004</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
-        <v>11</v>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/50004</v>
       </c>
       <c r="E15" t="s">
         <v>89</v>
@@ -1432,13 +1439,13 @@
         <v>62</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>166</v>
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>127</v>
@@ -1449,13 +1456,14 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>10013</v>
+        <v>50005</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" t="s">
-        <v>11</v>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/50005</v>
       </c>
       <c r="E16" t="s">
         <v>90</v>
@@ -1470,7 +1478,7 @@
         <v>5</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>128</v>
@@ -1481,13 +1489,14 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>10014</v>
+        <v>50006</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" t="s">
-        <v>11</v>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/50006</v>
       </c>
       <c r="E17" t="s">
         <v>91</v>
@@ -1502,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="I17">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>129</v>
@@ -1513,31 +1522,29 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>10015</v>
+        <v>60001</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
+        <v>46</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/60001</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="I18">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1545,31 +1552,32 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>10016</v>
+        <v>60002</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/60002</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>7</v>
-      </c>
-      <c r="I19">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1577,31 +1585,32 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>10017</v>
+        <v>70001</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/70001</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
         <v>11</v>
       </c>
-      <c r="E20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>8</v>
-      </c>
-      <c r="I20">
-        <v>10</v>
-      </c>
       <c r="K20" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1609,31 +1618,29 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>10018</v>
+        <v>70002</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
+        <v>47</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/70002</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1641,19 +1648,20 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>10019</v>
+        <v>80001</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/80001</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1662,10 +1670,10 @@
         <v>8</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1673,19 +1681,20 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>10020</v>
+        <v>80002</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/80002</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1694,10 +1703,10 @@
         <v>8</v>
       </c>
       <c r="I23">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1705,19 +1714,20 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>10021</v>
+        <v>80003</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
+        <v>38</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/80003</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1726,10 +1736,10 @@
         <v>8</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1737,19 +1747,20 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>10022</v>
+        <v>80004</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/80004</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1758,10 +1769,10 @@
         <v>8</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1769,19 +1780,20 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>10023</v>
+        <v>80005</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/80005</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1790,10 +1802,10 @@
         <v>8</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1801,19 +1813,20 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>10024</v>
+        <v>80006</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
+        <v>41</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/80006</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1822,10 +1835,10 @@
         <v>8</v>
       </c>
       <c r="I27">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1833,31 +1846,32 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>10025</v>
+        <v>80007</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
+        <v>42</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/80007</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I28">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1865,31 +1879,32 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>10026</v>
+        <v>80008</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/80008</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29">
+        <v>8</v>
+      </c>
+      <c r="I29">
         <v>9</v>
       </c>
-      <c r="I29">
-        <v>36</v>
-      </c>
       <c r="K29" s="1" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1897,28 +1912,32 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>10027</v>
+        <v>90001</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/90001</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="I30">
+        <v>35</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -1926,28 +1945,32 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>10028</v>
+        <v>90002</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/90002</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="F31" t="s">
+        <v>75</v>
       </c>
       <c r="G31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I31">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -1955,16 +1978,17 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>10029</v>
+        <v>90003</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/90003</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1976,7 +2000,7 @@
         <v>1001</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -1984,16 +2008,17 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>10030</v>
+        <v>100001</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
+        <v>49</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/100001</v>
       </c>
       <c r="E33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G33">
         <v>20</v>
@@ -2002,10 +2027,10 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -2013,16 +2038,17 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>10031</v>
+        <v>100002</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" t="s">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/100002</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G34">
         <v>100</v>
@@ -2031,10 +2057,10 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -2042,16 +2068,17 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>10032</v>
+        <v>100003</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
+        <v>51</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/100003</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G35">
         <v>50</v>
@@ -2060,10 +2087,10 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -2071,16 +2098,17 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>10033</v>
+        <v>100004</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" t="s">
-        <v>11</v>
+        <v>52</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/100004</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G36">
         <v>50</v>
@@ -2089,10 +2117,10 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -2100,16 +2128,17 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>10034</v>
+        <v>100005</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" t="s">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/100005</v>
       </c>
       <c r="E37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G37">
         <v>100</v>
@@ -2118,10 +2147,10 @@
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -2129,16 +2158,17 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <v>10035</v>
+        <v>100006</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
+        <v>54</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/100006</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -2147,10 +2177,10 @@
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -2158,16 +2188,17 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <v>10036</v>
+        <v>100007</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" t="s">
-        <v>11</v>
+        <v>55</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/100007</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G39">
         <v>500</v>
@@ -2176,10 +2207,10 @@
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -2187,16 +2218,17 @@
         <v>37</v>
       </c>
       <c r="B40">
-        <v>10037</v>
+        <v>100008</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/100008</v>
       </c>
       <c r="E40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G40">
         <v>25</v>
@@ -2205,10 +2237,10 @@
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
@@ -2216,16 +2248,17 @@
         <v>38</v>
       </c>
       <c r="B41">
-        <v>10038</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" t="s">
-        <v>11</v>
+        <v>57</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>UI/Achievement/1</v>
       </c>
       <c r="E41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2234,18 +2267,18 @@
         <v>0</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O46" s="2"/>
       <c r="P46" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
@@ -2254,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
@@ -2265,7 +2298,7 @@
         <v>2</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -2276,7 +2309,7 @@
         <v>3</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
@@ -2287,7 +2320,7 @@
         <v>4</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
@@ -2298,11 +2331,11 @@
         <v>5</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="R51" s="2"/>
       <c r="S51" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="15:19" x14ac:dyDescent="0.2">
@@ -2311,11 +2344,11 @@
         <v>6</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R52" s="2"/>
       <c r="S52" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="15:19" x14ac:dyDescent="0.2">
@@ -2324,11 +2357,11 @@
         <v>7</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R53" s="2"/>
       <c r="S53" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="15:19" x14ac:dyDescent="0.2">
@@ -2337,11 +2370,11 @@
         <v>8</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R54" s="2"/>
       <c r="S54" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="15:19" x14ac:dyDescent="0.2">
@@ -2350,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
@@ -2361,7 +2394,7 @@
         <v>10</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
@@ -2393,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>

--- a/ExcelToCs/配置/成就配置表.xlsx
+++ b/ExcelToCs/配置/成就配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E01452-1906-43A8-BF81-6915D2947976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093D4B15-092F-40E3-8C6B-142EF833DE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="1725" windowWidth="27480" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="1440" windowWidth="35220" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Achievement" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="203">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -566,10 +566,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>参数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>param</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -647,6 +643,98 @@
   </si>
   <si>
     <t>特殊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlockParam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁成就参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁物品参数  type_类型   1植物，2道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_40</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_33</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_37</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_basketball</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_bucket</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_casque</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_guideboard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_paper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_cone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_screendoor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_zamboni</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_icetrap</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_fire</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1001,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1041,7 +1129,10 @@
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>158</v>
+        <v>182</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1070,7 +1161,10 @@
         <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1099,7 +1193,10 @@
         <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1348,6 +1445,9 @@
       <c r="I12">
         <v>1</v>
       </c>
+      <c r="J12" t="s">
+        <v>184</v>
+      </c>
       <c r="K12" s="1" t="s">
         <v>123</v>
       </c>
@@ -1381,6 +1481,9 @@
       <c r="I13">
         <v>2</v>
       </c>
+      <c r="J13" t="s">
+        <v>185</v>
+      </c>
       <c r="K13" s="1" t="s">
         <v>124</v>
       </c>
@@ -1406,13 +1509,16 @@
         <v>60</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14">
         <v>5</v>
       </c>
       <c r="I14">
         <v>9</v>
+      </c>
+      <c r="J14" t="s">
+        <v>186</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>125</v>
@@ -1439,13 +1545,16 @@
         <v>62</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15">
         <v>5</v>
       </c>
       <c r="I15">
         <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>187</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>127</v>
@@ -1472,13 +1581,16 @@
         <v>63</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16">
         <v>5</v>
       </c>
       <c r="I16">
         <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>188</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>128</v>
@@ -1505,13 +1617,16 @@
         <v>64</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>5</v>
       </c>
       <c r="I17">
         <v>26</v>
+      </c>
+      <c r="J17" t="s">
+        <v>189</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>129</v>
@@ -1543,6 +1658,9 @@
       <c r="H18">
         <v>6</v>
       </c>
+      <c r="J18" t="s">
+        <v>192</v>
+      </c>
       <c r="K18" s="1" t="s">
         <v>140</v>
       </c>
@@ -1574,7 +1692,10 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="J19" t="s">
+        <v>190</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>126</v>
@@ -1609,6 +1730,9 @@
       <c r="I20">
         <v>11</v>
       </c>
+      <c r="J20" t="s">
+        <v>191</v>
+      </c>
       <c r="K20" s="1" t="s">
         <v>130</v>
       </c>
@@ -1672,6 +1796,9 @@
       <c r="I22">
         <v>10</v>
       </c>
+      <c r="J22" t="s">
+        <v>193</v>
+      </c>
       <c r="K22" s="1" t="s">
         <v>131</v>
       </c>
@@ -1705,6 +1832,9 @@
       <c r="I23">
         <v>2</v>
       </c>
+      <c r="J23" t="s">
+        <v>194</v>
+      </c>
       <c r="K23" s="1" t="s">
         <v>132</v>
       </c>
@@ -1738,6 +1868,9 @@
       <c r="I24">
         <v>5</v>
       </c>
+      <c r="J24" t="s">
+        <v>195</v>
+      </c>
       <c r="K24" s="1" t="s">
         <v>133</v>
       </c>
@@ -1771,6 +1904,9 @@
       <c r="I25">
         <v>11</v>
       </c>
+      <c r="J25" t="s">
+        <v>196</v>
+      </c>
       <c r="K25" s="1" t="s">
         <v>134</v>
       </c>
@@ -1804,6 +1940,9 @@
       <c r="I26">
         <v>6</v>
       </c>
+      <c r="J26" t="s">
+        <v>197</v>
+      </c>
       <c r="K26" s="1" t="s">
         <v>135</v>
       </c>
@@ -1837,6 +1976,9 @@
       <c r="I27">
         <v>1</v>
       </c>
+      <c r="J27" t="s">
+        <v>198</v>
+      </c>
       <c r="K27" s="1" t="s">
         <v>136</v>
       </c>
@@ -1870,6 +2012,9 @@
       <c r="I28">
         <v>3</v>
       </c>
+      <c r="J28" t="s">
+        <v>199</v>
+      </c>
       <c r="K28" s="1" t="s">
         <v>137</v>
       </c>
@@ -1903,8 +2048,11 @@
       <c r="I29">
         <v>9</v>
       </c>
+      <c r="J29" t="s">
+        <v>200</v>
+      </c>
       <c r="K29" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1936,6 +2084,9 @@
       <c r="I30">
         <v>35</v>
       </c>
+      <c r="J30" t="s">
+        <v>201</v>
+      </c>
       <c r="K30" s="1" t="s">
         <v>138</v>
       </c>
@@ -1969,6 +2120,9 @@
       <c r="I31">
         <v>36</v>
       </c>
+      <c r="J31" t="s">
+        <v>202</v>
+      </c>
       <c r="K31" s="1" t="s">
         <v>139</v>
       </c>
@@ -2027,7 +2181,7 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>143</v>
@@ -2057,7 +2211,7 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>144</v>
@@ -2087,7 +2241,7 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>145</v>
@@ -2117,7 +2271,7 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>146</v>
@@ -2147,7 +2301,7 @@
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>147</v>
@@ -2177,7 +2331,7 @@
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>148</v>
@@ -2207,7 +2361,7 @@
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>149</v>
@@ -2237,7 +2391,7 @@
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>150</v>
@@ -2278,7 +2432,7 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
@@ -2335,7 +2489,7 @@
       </c>
       <c r="R51" s="2"/>
       <c r="S51" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="15:19" x14ac:dyDescent="0.2">
@@ -2344,11 +2498,11 @@
         <v>6</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R52" s="2"/>
       <c r="S52" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="15:19" x14ac:dyDescent="0.2">
@@ -2357,11 +2511,11 @@
         <v>7</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R53" s="2"/>
       <c r="S53" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="15:19" x14ac:dyDescent="0.2">
@@ -2370,11 +2524,11 @@
         <v>8</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R54" s="2"/>
       <c r="S54" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="15:19" x14ac:dyDescent="0.2">
@@ -2383,7 +2537,7 @@
         <v>9</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
@@ -2394,7 +2548,7 @@
         <v>10</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
@@ -2426,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>

--- a/ExcelToCs/配置/成就配置表.xlsx
+++ b/ExcelToCs/配置/成就配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093D4B15-092F-40E3-8C6B-142EF833DE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44DBCBF-FF18-4D7F-8D8F-689989C2B68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="1440" windowWidth="35220" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1650" yWindow="1095" windowWidth="35220" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Achievement" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -410,14 +419,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>一局冒险中收集50个僵尸头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一局冒险中收集200个僵尸头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>一局冒险中收集500个僵尸头</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -434,26 +435,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>累计培养2次玉米投手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>第一次购买水花盆</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>累计培养2次大喷菇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计培养2次向日葵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计培养2次地刺</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>累计使用灰烬植物击杀10只僵尸</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -735,6 +720,30 @@
   </si>
   <si>
     <t>2_fire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一局冒险中收集100个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一局冒险中收集1000个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养4次玉米投手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养4次大喷菇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养4次向日葵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养4次地刺</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1090,7 +1099,7 @@
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1129,10 +1138,10 @@
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1161,10 +1170,10 @@
         <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1193,10 +1202,10 @@
         <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1326,13 +1335,13 @@
         <v>81</v>
       </c>
       <c r="G8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H8">
         <v>3</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1353,13 +1362,13 @@
         <v>82</v>
       </c>
       <c r="G9">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1380,13 +1389,13 @@
         <v>83</v>
       </c>
       <c r="G10">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1413,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1446,10 +1455,10 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1482,10 +1491,10 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1518,10 +1527,10 @@
         <v>9</v>
       </c>
       <c r="J14" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1554,10 +1563,10 @@
         <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1590,10 +1599,10 @@
         <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1626,10 +1635,10 @@
         <v>26</v>
       </c>
       <c r="J17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1659,10 +1668,10 @@
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1692,13 +1701,13 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1731,10 +1740,10 @@
         <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1764,7 +1773,7 @@
         <v>6</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1797,10 +1806,10 @@
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1833,10 +1842,10 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1869,10 +1878,10 @@
         <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1905,10 +1914,10 @@
         <v>11</v>
       </c>
       <c r="J25" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1941,10 +1950,10 @@
         <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1977,10 +1986,10 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -2013,10 +2022,10 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -2049,10 +2058,10 @@
         <v>9</v>
       </c>
       <c r="J29" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -2085,10 +2094,10 @@
         <v>35</v>
       </c>
       <c r="J30" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -2121,10 +2130,10 @@
         <v>36</v>
       </c>
       <c r="J31" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -2154,7 +2163,7 @@
         <v>1001</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -2181,10 +2190,10 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -2211,10 +2220,10 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -2241,10 +2250,10 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -2271,10 +2280,10 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -2301,10 +2310,10 @@
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -2331,10 +2340,10 @@
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -2361,10 +2370,10 @@
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -2391,10 +2400,10 @@
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
@@ -2421,18 +2430,18 @@
         <v>0</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O46" s="2"/>
       <c r="P46" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
@@ -2441,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
@@ -2452,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -2463,7 +2472,7 @@
         <v>3</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
@@ -2474,7 +2483,7 @@
         <v>4</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
@@ -2485,11 +2494,11 @@
         <v>5</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="R51" s="2"/>
       <c r="S51" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="15:19" x14ac:dyDescent="0.2">
@@ -2498,11 +2507,11 @@
         <v>6</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="R52" s="2"/>
       <c r="S52" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="15:19" x14ac:dyDescent="0.2">
@@ -2511,11 +2520,11 @@
         <v>7</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="R53" s="2"/>
       <c r="S53" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="15:19" x14ac:dyDescent="0.2">
@@ -2524,11 +2533,11 @@
         <v>8</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="R54" s="2"/>
       <c r="S54" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="15:19" x14ac:dyDescent="0.2">
@@ -2537,7 +2546,7 @@
         <v>9</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
@@ -2548,7 +2557,7 @@
         <v>10</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
@@ -2580,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>

--- a/ExcelToCs/配置/成就配置表.xlsx
+++ b/ExcelToCs/配置/成就配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44DBCBF-FF18-4D7F-8D8F-689989C2B68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A46E1A-21E0-4D4F-9D1C-4CDE93A9EC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="1095" windowWidth="35220" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Achievement" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="222">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -276,474 +267,537 @@
     <t>achievement_lock23</t>
   </si>
   <si>
+    <t>achievement_lock25</t>
+  </si>
+  <si>
+    <t>achievement_lock26</t>
+  </si>
+  <si>
+    <t>achievement_lock27</t>
+  </si>
+  <si>
+    <t>achievement_info1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement_info2</t>
+  </si>
+  <si>
+    <t>achievement_info3</t>
+  </si>
+  <si>
+    <t>achievement_info4</t>
+  </si>
+  <si>
+    <t>achievement_info5</t>
+  </si>
+  <si>
+    <t>achievement_info6</t>
+  </si>
+  <si>
+    <t>achievement_info7</t>
+  </si>
+  <si>
+    <t>achievement_info8</t>
+  </si>
+  <si>
+    <t>achievement_info9</t>
+  </si>
+  <si>
+    <t>achievement_info10</t>
+  </si>
+  <si>
+    <t>achievement_info11</t>
+  </si>
+  <si>
+    <t>achievement_info12</t>
+  </si>
+  <si>
+    <t>achievement_info13</t>
+  </si>
+  <si>
+    <t>achievement_info14</t>
+  </si>
+  <si>
+    <t>achievement_info15</t>
+  </si>
+  <si>
+    <t>achievement_info16</t>
+  </si>
+  <si>
+    <t>achievement_info17</t>
+  </si>
+  <si>
+    <t>achievement_info18</t>
+  </si>
+  <si>
+    <t>achievement_info19</t>
+  </si>
+  <si>
+    <t>achievement_info20</t>
+  </si>
+  <si>
+    <t>achievement_info21</t>
+  </si>
+  <si>
+    <t>achievement_info22</t>
+  </si>
+  <si>
+    <t>achievement_info23</t>
+  </si>
+  <si>
+    <t>achievement_info24</t>
+  </si>
+  <si>
+    <t>achievement_info25</t>
+  </si>
+  <si>
+    <t>achievement_info26</t>
+  </si>
+  <si>
+    <t>achievement_info27</t>
+  </si>
+  <si>
+    <t>achievement_info28</t>
+  </si>
+  <si>
+    <t>achievement_info29</t>
+  </si>
+  <si>
+    <t>achievement_info30</t>
+  </si>
+  <si>
+    <t>achievement_info31</t>
+  </si>
+  <si>
+    <t>achievement_info32</t>
+  </si>
+  <si>
+    <t>achievement_info33</t>
+  </si>
+  <si>
+    <t>achievement_info34</t>
+  </si>
+  <si>
+    <t>achievement_info35</t>
+  </si>
+  <si>
+    <t>achievement_info36</t>
+  </si>
+  <si>
+    <t>achievement_info37</t>
+  </si>
+  <si>
+    <t>achievement_info38</t>
+  </si>
+  <si>
+    <t>第一次开始冒险</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共收集300个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共收集2000个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共收集10000个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一局冒险中收集500个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次被僵尸吃掉脑子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养4次豌豆射手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计进化过2次双发射手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次购买水花盆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计使用灰烬植物击杀10只僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击杀投篮僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击杀巨人僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次购物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用菠菜的飞头攻击累计击杀10只僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次使用传送门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量达到20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值达到100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度达到50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲达到50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物学达到100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币达到100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光达到500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运达到25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭坛等级全部升满</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共收集僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单局收集僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养植物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>param</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买商品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性达标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pot_Water</t>
+  </si>
+  <si>
+    <t>植物类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次击杀冰车僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>某伤害击杀僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>MaximumHP</t>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Botany</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldCoins</t>
+  </si>
+  <si>
+    <t>Sunshine</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlockParam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁成就参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁物品参数  type_类型   1植物，2道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_40</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_33</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_37</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_basketball</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_bucket</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_casque</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_guideboard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_paper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_cone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_screendoor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_zamboni</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_icetrap</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_fire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一局冒险中收集100个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一局冒险中收集1000个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养4次玉米投手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养4次大喷菇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养4次向日葵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计培养4次地刺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_PoleVaulting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计击杀20次撑杆跳僵尸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸种类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Normal,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Cone,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Bucket,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Screendoor,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Flag,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Football,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Paper,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Polevaulter,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Balloon,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Zamboni,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Catapult,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Gargantuan,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Boss,</t>
+  </si>
+  <si>
+    <t>累计使用寒冰菇20次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计使用火爆辣椒20次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计击杀铁桶僵尸10只</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计击杀橄榄球僵尸10只</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计击杀读报僵尸10只</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计击杀路障僵尸20只</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计击杀铁栅栏僵尸10只</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement_title80009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement_info80009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>achievement_lock24</t>
-  </si>
-  <si>
-    <t>achievement_lock25</t>
-  </si>
-  <si>
-    <t>achievement_lock26</t>
-  </si>
-  <si>
-    <t>achievement_lock27</t>
-  </si>
-  <si>
-    <t>achievement_info1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>achievement_info2</t>
-  </si>
-  <si>
-    <t>achievement_info3</t>
-  </si>
-  <si>
-    <t>achievement_info4</t>
-  </si>
-  <si>
-    <t>achievement_info5</t>
-  </si>
-  <si>
-    <t>achievement_info6</t>
-  </si>
-  <si>
-    <t>achievement_info7</t>
-  </si>
-  <si>
-    <t>achievement_info8</t>
-  </si>
-  <si>
-    <t>achievement_info9</t>
-  </si>
-  <si>
-    <t>achievement_info10</t>
-  </si>
-  <si>
-    <t>achievement_info11</t>
-  </si>
-  <si>
-    <t>achievement_info12</t>
-  </si>
-  <si>
-    <t>achievement_info13</t>
-  </si>
-  <si>
-    <t>achievement_info14</t>
-  </si>
-  <si>
-    <t>achievement_info15</t>
-  </si>
-  <si>
-    <t>achievement_info16</t>
-  </si>
-  <si>
-    <t>achievement_info17</t>
-  </si>
-  <si>
-    <t>achievement_info18</t>
-  </si>
-  <si>
-    <t>achievement_info19</t>
-  </si>
-  <si>
-    <t>achievement_info20</t>
-  </si>
-  <si>
-    <t>achievement_info21</t>
-  </si>
-  <si>
-    <t>achievement_info22</t>
-  </si>
-  <si>
-    <t>achievement_info23</t>
-  </si>
-  <si>
-    <t>achievement_info24</t>
-  </si>
-  <si>
-    <t>achievement_info25</t>
-  </si>
-  <si>
-    <t>achievement_info26</t>
-  </si>
-  <si>
-    <t>achievement_info27</t>
-  </si>
-  <si>
-    <t>achievement_info28</t>
-  </si>
-  <si>
-    <t>achievement_info29</t>
-  </si>
-  <si>
-    <t>achievement_info30</t>
-  </si>
-  <si>
-    <t>achievement_info31</t>
-  </si>
-  <si>
-    <t>achievement_info32</t>
-  </si>
-  <si>
-    <t>achievement_info33</t>
-  </si>
-  <si>
-    <t>achievement_info34</t>
-  </si>
-  <si>
-    <t>achievement_info35</t>
-  </si>
-  <si>
-    <t>achievement_info36</t>
-  </si>
-  <si>
-    <t>achievement_info37</t>
-  </si>
-  <si>
-    <t>achievement_info38</t>
-  </si>
-  <si>
-    <t>第一次开始冒险</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>总共收集300个僵尸头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>总共收集2000个僵尸头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>总共收集10000个僵尸头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一局冒险中收集500个僵尸头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次被僵尸吃掉脑子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计培养4次豌豆射手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计进化过2次双发射手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次购买水花盆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计使用灰烬植物击杀10只僵尸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次击杀投篮僵尸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次击杀铁桶僵尸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次击杀橄榄球僵尸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次击杀巨人僵尸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次击杀读报僵尸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次击杀路障僵尸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次击杀铁栅栏僵尸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次使用寒冰菇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次使用火爆辣椒</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次购物</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用菠菜的飞头攻击累计击杀10只僵尸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次使用传送门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量达到20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值达到100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击速度达到50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲达到50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>植物学达到100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币达到100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光达到500</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运达到25</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>祭坛等级全部升满</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险次数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>总共收集僵尸头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单局收集僵尸头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡次数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>培养植物</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>param</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买商品</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀僵尸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊道具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性达标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pot_Water</t>
-  </si>
-  <si>
-    <t>植物类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>僵尸类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>首次击杀冰车僵尸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>某伤害击杀僵尸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>MaximumHP</t>
-  </si>
-  <si>
-    <t>AttackSpeed</t>
-  </si>
-  <si>
-    <t>Armor</t>
-  </si>
-  <si>
-    <t>Botany</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoldCoins</t>
-  </si>
-  <si>
-    <t>Sunshine</t>
-  </si>
-  <si>
-    <t>Lucky</t>
-  </si>
-  <si>
-    <t>特殊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlockParam</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁成就参数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁物品参数  type_类型   1植物，2道具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_40</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_33</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_25</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_37</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_basketball</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_bucket</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_casque</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_guideboard</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_paper</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_cone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_screendoor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_zamboni</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_icetrap</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_fire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一局冒险中收集100个僵尸头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一局冒险中收集1000个僵尸头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计培养4次玉米投手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计培养4次大喷菇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计培养4次向日葵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计培养4次地刺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement_lock80009</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -811,10 +865,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1096,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1138,10 +1193,10 @@
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1170,10 +1225,10 @@
         <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1202,10 +1257,10 @@
         <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1223,7 +1278,7 @@
         <v>UI/Achievement/10001</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4">
@@ -1233,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1251,7 +1306,7 @@
         <v>UI/Achievement/20001</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>300</v>
@@ -1260,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1278,7 +1333,7 @@
         <v>UI/Achievement/20002</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6">
         <v>2000</v>
@@ -1287,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1305,7 +1360,7 @@
         <v>UI/Achievement/20003</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7">
         <v>10000</v>
@@ -1314,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1332,7 +1387,7 @@
         <v>UI/Achievement/30001</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8">
         <v>100</v>
@@ -1341,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1359,7 +1414,7 @@
         <v>UI/Achievement/30002</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9">
         <v>500</v>
@@ -1368,7 +1423,7 @@
         <v>3</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1386,7 +1441,7 @@
         <v>UI/Achievement/30003</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10">
         <v>1000</v>
@@ -1395,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1413,7 +1468,7 @@
         <v>UI/Achievement/40001</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1422,7 +1477,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1440,7 +1495,7 @@
         <v>UI/Achievement/50001</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
         <v>58</v>
@@ -1455,10 +1510,10 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1476,7 +1531,7 @@
         <v>UI/Achievement/50002</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
         <v>59</v>
@@ -1491,10 +1546,10 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1512,7 +1567,7 @@
         <v>UI/Achievement/50003</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
         <v>60</v>
@@ -1527,10 +1582,10 @@
         <v>9</v>
       </c>
       <c r="J14" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1548,7 +1603,7 @@
         <v>UI/Achievement/50004</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
         <v>62</v>
@@ -1563,10 +1618,10 @@
         <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1584,7 +1639,7 @@
         <v>UI/Achievement/50005</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
         <v>63</v>
@@ -1599,10 +1654,10 @@
         <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1620,7 +1675,7 @@
         <v>UI/Achievement/50006</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
         <v>64</v>
@@ -1635,10 +1690,10 @@
         <v>26</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1656,10 +1711,10 @@
         <v>UI/Achievement/60001</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1668,10 +1723,10 @@
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1689,7 +1744,7 @@
         <v>UI/Achievement/60002</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s">
         <v>61</v>
@@ -1701,13 +1756,13 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1725,7 +1780,7 @@
         <v>UI/Achievement/70001</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
         <v>65</v>
@@ -1740,10 +1795,10 @@
         <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1761,7 +1816,7 @@
         <v>UI/Achievement/70002</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G21">
         <v>10</v>
@@ -1773,7 +1828,7 @@
         <v>6</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1791,7 +1846,7 @@
         <v>UI/Achievement/80001</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
         <v>66</v>
@@ -1806,10 +1861,10 @@
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1827,13 +1882,13 @@
         <v>UI/Achievement/80002</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
         <v>67</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H23">
         <v>8</v>
@@ -1842,10 +1897,10 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1863,13 +1918,13 @@
         <v>UI/Achievement/80003</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
         <v>68</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H24">
         <v>8</v>
@@ -1878,10 +1933,10 @@
         <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1899,7 +1954,7 @@
         <v>UI/Achievement/80004</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
         <v>69</v>
@@ -1914,10 +1969,10 @@
         <v>11</v>
       </c>
       <c r="J25" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1935,13 +1990,13 @@
         <v>UI/Achievement/80005</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s">
         <v>70</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H26">
         <v>8</v>
@@ -1950,10 +2005,10 @@
         <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>129</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1971,13 +2026,13 @@
         <v>UI/Achievement/80006</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s">
         <v>71</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H27">
         <v>8</v>
@@ -1986,10 +2041,10 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -2007,13 +2062,13 @@
         <v>UI/Achievement/80007</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
         <v>72</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H28">
         <v>8</v>
@@ -2022,10 +2077,10 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>131</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -2043,10 +2098,10 @@
         <v>UI/Achievement/80008</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2058,10 +2113,10 @@
         <v>9</v>
       </c>
       <c r="J29" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -2069,35 +2124,35 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>90001</v>
+        <v>80009</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v>UI/Achievement/90001</v>
+        <v>UI/Achievement/80009</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>219</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I30">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J30" t="s">
         <v>195</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>132</v>
+      <c r="K30" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -2105,35 +2160,35 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>90002</v>
+        <v>90001</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>UI/Achievement/90002</v>
+        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B31)</f>
+        <v>UI/Achievement/90001</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H31">
         <v>9</v>
       </c>
       <c r="I31">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J31" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -2141,29 +2196,35 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>90003</v>
+        <v>90002</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>UI/Achievement/90003</v>
+        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B32)</f>
+        <v>UI/Achievement/90002</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="F32" t="s">
+        <v>74</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H32">
         <v>9</v>
       </c>
       <c r="I32">
-        <v>1001</v>
+        <v>36</v>
+      </c>
+      <c r="J32" t="s">
+        <v>188</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -2171,29 +2232,29 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>100001</v>
+        <v>90003</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>UI/Achievement/100001</v>
+        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B33)</f>
+        <v>UI/Achievement/90003</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G33">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>10</v>
-      </c>
-      <c r="I33" t="s">
-        <v>165</v>
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <v>1001</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -2201,29 +2262,29 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>UI/Achievement/100002</v>
+        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B34)</f>
+        <v>UI/Achievement/100001</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G34">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H34">
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -2231,29 +2292,29 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>100003</v>
+        <v>100002</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>UI/Achievement/100003</v>
+        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B35)</f>
+        <v>UI/Achievement/100002</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G35">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H35">
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -2261,17 +2322,17 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>100004</v>
+        <v>100003</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>UI/Achievement/100004</v>
+        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B36)</f>
+        <v>UI/Achievement/100003</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G36">
         <v>50</v>
@@ -2280,10 +2341,10 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -2291,29 +2352,29 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>100005</v>
+        <v>100004</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>UI/Achievement/100005</v>
+        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B37)</f>
+        <v>UI/Achievement/100004</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H37">
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -2321,17 +2382,17 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <v>100006</v>
+        <v>100005</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>UI/Achievement/100006</v>
+        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B38)</f>
+        <v>UI/Achievement/100005</v>
       </c>
       <c r="E38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G38">
         <v>100</v>
@@ -2340,10 +2401,10 @@
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -2351,29 +2412,29 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <v>100007</v>
+        <v>100006</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>UI/Achievement/100007</v>
+        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B39)</f>
+        <v>UI/Achievement/100006</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G39">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H39">
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -2381,29 +2442,29 @@
         <v>37</v>
       </c>
       <c r="B40">
-        <v>100008</v>
+        <v>100007</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>UI/Achievement/100008</v>
+        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B40)</f>
+        <v>UI/Achievement/100007</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G40">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="H40">
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
@@ -2411,37 +2472,67 @@
         <v>38</v>
       </c>
       <c r="B41">
+        <v>100008</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B41)</f>
+        <v>UI/Achievement/100008</v>
+      </c>
+      <c r="E41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41">
+        <v>25</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
+        <v>164</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>57</v>
       </c>
-      <c r="D41" t="str">
-        <f t="shared" si="0"/>
+      <c r="D42" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B42)</f>
         <v>UI/Achievement/1</v>
       </c>
-      <c r="E41" t="s">
-        <v>114</v>
-      </c>
-      <c r="G41">
+      <c r="E42" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42">
         <v>1</v>
       </c>
-      <c r="H41">
+      <c r="H42">
         <v>0</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>145</v>
+      <c r="K42" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O46" s="2"/>
       <c r="P46" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
@@ -2450,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
@@ -2461,173 +2552,262 @@
         <v>2</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="15:25" x14ac:dyDescent="0.2">
       <c r="O49" s="2"/>
       <c r="P49" s="2">
         <v>3</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
     </row>
-    <row r="50" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="15:25" x14ac:dyDescent="0.2">
       <c r="O50" s="2"/>
       <c r="P50" s="2">
         <v>4</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
     </row>
-    <row r="51" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="15:25" x14ac:dyDescent="0.2">
       <c r="O51" s="2"/>
       <c r="P51" s="2">
         <v>5</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="R51" s="2"/>
       <c r="S51" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="15:19" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="15:25" x14ac:dyDescent="0.2">
       <c r="O52" s="2"/>
       <c r="P52" s="2">
         <v>6</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="R52" s="2"/>
       <c r="S52" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="15:19" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="15:25" x14ac:dyDescent="0.2">
       <c r="O53" s="2"/>
       <c r="P53" s="2">
         <v>7</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="R53" s="2"/>
       <c r="S53" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="54" spans="15:19" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="15:25" x14ac:dyDescent="0.2">
       <c r="O54" s="2"/>
       <c r="P54" s="2">
         <v>8</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="R54" s="2"/>
       <c r="S54" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="55" spans="15:19" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="15:25" x14ac:dyDescent="0.2">
       <c r="O55" s="2"/>
       <c r="P55" s="2">
         <v>9</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
-    </row>
-    <row r="56" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="W55" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="15:25" x14ac:dyDescent="0.2">
       <c r="O56" s="2"/>
       <c r="P56" s="2">
         <v>10</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
     </row>
-    <row r="57" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="15:25" x14ac:dyDescent="0.2">
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
-    </row>
-    <row r="58" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="W57" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="15:25" x14ac:dyDescent="0.2">
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
-    </row>
-    <row r="59" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="W58" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="15:25" x14ac:dyDescent="0.2">
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
-    </row>
-    <row r="60" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="W59" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="15:25" x14ac:dyDescent="0.2">
       <c r="O60" s="2"/>
       <c r="P60" s="2">
         <v>0</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
-    </row>
-    <row r="61" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="W60" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="15:25" x14ac:dyDescent="0.2">
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
-    </row>
-    <row r="62" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="W61" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="15:25" x14ac:dyDescent="0.2">
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
-    </row>
-    <row r="63" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="W62" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="15:25" x14ac:dyDescent="0.2">
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
-    </row>
-    <row r="64" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="W63" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="15:25" x14ac:dyDescent="0.2">
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
-    </row>
-    <row r="65" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="W64" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="15:25" x14ac:dyDescent="0.2">
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
+      <c r="W65" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="15:25" x14ac:dyDescent="0.2">
+      <c r="W66" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="15:25" x14ac:dyDescent="0.2">
+      <c r="W67" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="15:25" x14ac:dyDescent="0.2">
+      <c r="W68" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="15:25" x14ac:dyDescent="0.2">
+      <c r="W69" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y69">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/ExcelToCs/配置/成就配置表.xlsx
+++ b/ExcelToCs/配置/成就配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A46E1A-21E0-4D4F-9D1C-4CDE93A9EC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7BA664-79AE-4AB8-A334-DB24B7146B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="226">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -395,22 +404,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>总共收集300个僵尸头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>总共收集2000个僵尸头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>总共收集10000个僵尸头</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>一局冒险中收集500个僵尸头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>首次被僵尸吃掉脑子</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -683,10 +680,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>一局冒险中收集100个僵尸头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>一局冒险中收集1000个僵尸头</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -798,6 +791,37 @@
   </si>
   <si>
     <t>achievement_lock80009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共收集5000个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共收集40000个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一局冒险中收集200个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一局冒险中收集2000个僵尸头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement_title100009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement_info100009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalHitRate</t>
+  </si>
+  <si>
+    <t>暴击率达到100</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -865,11 +889,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1154,7 +1177,7 @@
   <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1193,10 +1216,10 @@
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1225,10 +1248,10 @@
         <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1257,10 +1280,10 @@
         <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1302,20 +1325,20 @@
         <v>21</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D41" si="0">_xlfn.TEXTJOIN(,,,"UI/Achievement/",B5)</f>
+        <f t="shared" ref="D5:D30" si="0">_xlfn.TEXTJOIN(,,,"UI/Achievement/",B5)</f>
         <v>UI/Achievement/20001</v>
       </c>
       <c r="E5" t="s">
         <v>77</v>
       </c>
       <c r="G5">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>115</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1336,13 +1359,13 @@
         <v>78</v>
       </c>
       <c r="G6">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1363,13 +1386,13 @@
         <v>79</v>
       </c>
       <c r="G7">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>117</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1390,13 +1413,13 @@
         <v>80</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H8">
         <v>3</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1417,13 +1440,13 @@
         <v>81</v>
       </c>
       <c r="G9">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1444,13 +1467,13 @@
         <v>82</v>
       </c>
       <c r="G10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1477,7 +1500,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1510,10 +1533,10 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1546,10 +1569,10 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1582,10 +1605,10 @@
         <v>9</v>
       </c>
       <c r="J14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1618,10 +1641,10 @@
         <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1654,10 +1677,10 @@
         <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1690,10 +1713,10 @@
         <v>26</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1723,10 +1746,10 @@
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1756,13 +1779,13 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1795,10 +1818,10 @@
         <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1828,7 +1851,7 @@
         <v>6</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1861,10 +1884,10 @@
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1897,10 +1920,10 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1933,10 +1956,10 @@
         <v>5</v>
       </c>
       <c r="J24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1969,10 +1992,10 @@
         <v>11</v>
       </c>
       <c r="J25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -2005,10 +2028,10 @@
         <v>6</v>
       </c>
       <c r="J26" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -2041,10 +2064,10 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -2077,10 +2100,10 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -2101,7 +2124,7 @@
         <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2113,10 +2136,10 @@
         <v>9</v>
       </c>
       <c r="J29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -2127,17 +2150,17 @@
         <v>80009</v>
       </c>
       <c r="C30" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
         <v>UI/Achievement/80009</v>
       </c>
       <c r="E30" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F30" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G30">
         <v>20</v>
@@ -2149,10 +2172,10 @@
         <v>7</v>
       </c>
       <c r="J30" t="s">
-        <v>195</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -2166,7 +2189,7 @@
         <v>44</v>
       </c>
       <c r="D31" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B31)</f>
+        <f t="shared" ref="D31:D42" si="1">_xlfn.TEXTJOIN(,,,"UI/Achievement/",B31)</f>
         <v>UI/Achievement/90001</v>
       </c>
       <c r="E31" t="s">
@@ -2185,10 +2208,10 @@
         <v>35</v>
       </c>
       <c r="J31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -2202,7 +2225,7 @@
         <v>45</v>
       </c>
       <c r="D32" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B32)</f>
+        <f t="shared" si="1"/>
         <v>UI/Achievement/90002</v>
       </c>
       <c r="E32" t="s">
@@ -2221,10 +2244,10 @@
         <v>36</v>
       </c>
       <c r="J32" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
@@ -2238,7 +2261,7 @@
         <v>48</v>
       </c>
       <c r="D33" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B33)</f>
+        <f t="shared" si="1"/>
         <v>UI/Achievement/90003</v>
       </c>
       <c r="E33" t="s">
@@ -2254,7 +2277,7 @@
         <v>1001</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
@@ -2268,7 +2291,7 @@
         <v>49</v>
       </c>
       <c r="D34" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B34)</f>
+        <f t="shared" si="1"/>
         <v>UI/Achievement/100001</v>
       </c>
       <c r="E34" t="s">
@@ -2281,10 +2304,10 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -2298,7 +2321,7 @@
         <v>50</v>
       </c>
       <c r="D35" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B35)</f>
+        <f t="shared" si="1"/>
         <v>UI/Achievement/100002</v>
       </c>
       <c r="E35" t="s">
@@ -2311,10 +2334,10 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -2328,7 +2351,7 @@
         <v>51</v>
       </c>
       <c r="D36" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B36)</f>
+        <f t="shared" si="1"/>
         <v>UI/Achievement/100003</v>
       </c>
       <c r="E36" t="s">
@@ -2341,10 +2364,10 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
@@ -2358,7 +2381,7 @@
         <v>52</v>
       </c>
       <c r="D37" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B37)</f>
+        <f t="shared" si="1"/>
         <v>UI/Achievement/100004</v>
       </c>
       <c r="E37" t="s">
@@ -2371,10 +2394,10 @@
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
@@ -2388,7 +2411,7 @@
         <v>53</v>
       </c>
       <c r="D38" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B38)</f>
+        <f t="shared" si="1"/>
         <v>UI/Achievement/100005</v>
       </c>
       <c r="E38" t="s">
@@ -2401,10 +2424,10 @@
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
@@ -2418,7 +2441,7 @@
         <v>54</v>
       </c>
       <c r="D39" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B39)</f>
+        <f t="shared" si="1"/>
         <v>UI/Achievement/100006</v>
       </c>
       <c r="E39" t="s">
@@ -2431,10 +2454,10 @@
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
@@ -2448,7 +2471,7 @@
         <v>55</v>
       </c>
       <c r="D40" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B40)</f>
+        <f t="shared" si="1"/>
         <v>UI/Achievement/100007</v>
       </c>
       <c r="E40" t="s">
@@ -2461,10 +2484,10 @@
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
@@ -2478,7 +2501,7 @@
         <v>56</v>
       </c>
       <c r="D41" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B41)</f>
+        <f t="shared" si="1"/>
         <v>UI/Achievement/100008</v>
       </c>
       <c r="E41" t="s">
@@ -2491,10 +2514,10 @@
         <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
@@ -2502,37 +2525,67 @@
         <v>39</v>
       </c>
       <c r="B42">
+        <v>100009</v>
+      </c>
+      <c r="C42" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" ref="D42" si="2">_xlfn.TEXTJOIN(,,,"UI/Achievement/",B42)</f>
+        <v>UI/Achievement/100009</v>
+      </c>
+      <c r="E42" t="s">
+        <v>223</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42" t="s">
+        <v>224</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
         <v>1</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>57</v>
       </c>
-      <c r="D42" t="str">
-        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B42)</f>
+      <c r="D43" t="str">
+        <f>_xlfn.TEXTJOIN(,,,"UI/Achievement/",B43)</f>
         <v>UI/Achievement/1</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>113</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <v>1</v>
       </c>
-      <c r="H42">
+      <c r="H43">
         <v>0</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>137</v>
+      <c r="K43" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O46" s="2"/>
       <c r="P46" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
@@ -2541,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
@@ -2552,7 +2605,7 @@
         <v>2</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -2563,7 +2616,7 @@
         <v>3</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
@@ -2574,7 +2627,7 @@
         <v>4</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
@@ -2585,11 +2638,11 @@
         <v>5</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="R51" s="2"/>
       <c r="S51" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="15:25" x14ac:dyDescent="0.2">
@@ -2598,11 +2651,11 @@
         <v>6</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="R52" s="2"/>
       <c r="S52" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="15:25" x14ac:dyDescent="0.2">
@@ -2611,11 +2664,11 @@
         <v>7</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="R53" s="2"/>
       <c r="S53" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="15:25" x14ac:dyDescent="0.2">
@@ -2624,11 +2677,11 @@
         <v>8</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="R54" s="2"/>
       <c r="S54" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="15:25" x14ac:dyDescent="0.2">
@@ -2637,12 +2690,12 @@
         <v>9</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="W55" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="15:25" x14ac:dyDescent="0.2">
@@ -2651,7 +2704,7 @@
         <v>10</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
@@ -2663,7 +2716,7 @@
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="W57" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -2676,7 +2729,7 @@
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="W58" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Y58">
         <v>1</v>
@@ -2689,7 +2742,7 @@
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="W59" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Y59">
         <v>2</v>
@@ -2701,12 +2754,12 @@
         <v>0</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="W60" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Y60">
         <v>3</v>
@@ -2719,7 +2772,7 @@
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="W61" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Y61">
         <v>4</v>
@@ -2732,7 +2785,7 @@
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
       <c r="W62" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Y62">
         <v>5</v>
@@ -2745,7 +2798,7 @@
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="W63" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Y63">
         <v>6</v>
@@ -2758,7 +2811,7 @@
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="W64" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Y64">
         <v>7</v>
@@ -2771,7 +2824,7 @@
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="W65" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Y65">
         <v>8</v>
@@ -2779,7 +2832,7 @@
     </row>
     <row r="66" spans="15:25" x14ac:dyDescent="0.2">
       <c r="W66" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Y66">
         <v>9</v>
@@ -2787,7 +2840,7 @@
     </row>
     <row r="67" spans="15:25" x14ac:dyDescent="0.2">
       <c r="W67" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Y67">
         <v>10</v>
@@ -2795,7 +2848,7 @@
     </row>
     <row r="68" spans="15:25" x14ac:dyDescent="0.2">
       <c r="W68" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Y68">
         <v>11</v>
@@ -2803,7 +2856,7 @@
     </row>
     <row r="69" spans="15:25" x14ac:dyDescent="0.2">
       <c r="W69" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Y69">
         <v>12</v>
